--- a/misc/ProjectProgress.xlsx
+++ b/misc/ProjectProgress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\GitStuff\ENSF-409-Final-Project\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D456CFA5-4084-4AC1-8B99-359C75DCAED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAD9352-4458-4A43-8EB5-A406C31396F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="3588" windowWidth="13824" windowHeight="7176" xr2:uid="{DAFA53DB-60F3-4781-8F8E-1ACED3959C8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAFA53DB-60F3-4781-8F8E-1ACED3959C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -910,36 +910,36 @@
         <v>22</v>
       </c>
       <c r="B15" s="3">
-        <f>AVERAGE(B2:B14)</f>
+        <f t="shared" ref="B15:H15" si="0">AVERAGE(B2:B14)</f>
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <f>AVERAGE(C2:C14)</f>
-        <v>0.53846153846153844</v>
+        <f t="shared" si="0"/>
+        <v>0.61538461538461542</v>
       </c>
       <c r="D15" s="3">
-        <f>AVERAGE(D2:D14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <f>AVERAGE(E2:E14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <f>AVERAGE(F2:F14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <f>AVERAGE(G2:G14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <f>AVERAGE(H2:H14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="3">
         <f>AVERAGE(B15:H15)</f>
-        <v>0.21978021978021975</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
   </sheetData>

--- a/misc/ProjectProgress.xlsx
+++ b/misc/ProjectProgress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\GitStuff\ENSF-409-Final-Project\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAD9352-4458-4A43-8EB5-A406C31396F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567A6E56-A5E5-4A79-9EEE-5AB4211523D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAFA53DB-60F3-4781-8F8E-1ACED3959C8C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Class</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Need shortBy method</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80779B7D-A18F-4F47-9E58-E58AD54B5276}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +505,7 @@
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +533,11 @@
       <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -557,7 +566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -586,7 +595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -615,7 +624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -644,7 +653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -673,7 +682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -702,7 +711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -731,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -739,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -759,8 +768,11 @@
       <c r="I9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -789,7 +801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -818,7 +830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -847,7 +859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -876,7 +888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -905,7 +917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -915,7 +927,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
@@ -939,7 +951,7 @@
       </c>
       <c r="I15" s="3">
         <f>AVERAGE(B15:H15)</f>
-        <v>0.23076923076923078</v>
+        <v>0.21978021978021975</v>
       </c>
     </row>
   </sheetData>

--- a/misc/ProjectProgress.xlsx
+++ b/misc/ProjectProgress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\GitStuff\ENSF-409-Final-Project\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567A6E56-A5E5-4A79-9EEE-5AB4211523D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738344F2-27C7-454D-91F0-44B600378792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAFA53DB-60F3-4781-8F8E-1ACED3959C8C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DAFA53DB-60F3-4781-8F8E-1ACED3959C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Class</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Need shortBy method</t>
   </si>
   <si>
     <t>Notes</t>
@@ -495,7 +492,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -748,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -767,9 +764,6 @@
       </c>
       <c r="I9" t="s">
         <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -927,7 +921,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
@@ -951,7 +945,7 @@
       </c>
       <c r="I15" s="3">
         <f>AVERAGE(B15:H15)</f>
-        <v>0.21978021978021975</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
   </sheetData>

--- a/misc/ProjectProgress.xlsx
+++ b/misc/ProjectProgress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\GitStuff\ENSF-409-Final-Project\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738344F2-27C7-454D-91F0-44B600378792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0BEC38-CEA5-45C1-B176-D277DDE8764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DAFA53DB-60F3-4781-8F8E-1ACED3959C8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAFA53DB-60F3-4781-8F8E-1ACED3959C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>OrderForm</t>
   </si>
   <si>
-    <t>NotEnoughGoodException</t>
-  </si>
-  <si>
     <t>RequestForm</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>NotEnoughFoodException</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -792,18 +792,18 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -850,12 +850,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -879,12 +879,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -908,12 +908,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" ref="B15:H15" si="0">AVERAGE(B2:B14)</f>
@@ -921,7 +921,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
@@ -945,7 +945,7 @@
       </c>
       <c r="I15" s="3">
         <f>AVERAGE(B15:H15)</f>
-        <v>0.23076923076923078</v>
+        <v>0.24175824175824176</v>
       </c>
     </row>
   </sheetData>

--- a/misc/ProjectProgress.xlsx
+++ b/misc/ProjectProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\GitStuff\ENSF-409-Final-Project\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0BEC38-CEA5-45C1-B176-D277DDE8764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C27BA5-E03C-4005-8F5C-FFF9D5558991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAFA53DB-60F3-4781-8F8E-1ACED3959C8C}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -921,7 +921,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>0.69230769230769229</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
@@ -945,7 +945,7 @@
       </c>
       <c r="I15" s="3">
         <f>AVERAGE(B15:H15)</f>
-        <v>0.24175824175824176</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
   </sheetData>

--- a/misc/ProjectProgress.xlsx
+++ b/misc/ProjectProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\GitStuff\ENSF-409-Final-Project\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C27BA5-E03C-4005-8F5C-FFF9D5558991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5E90F0-1A48-4969-9660-56BA96FB2FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAFA53DB-60F3-4781-8F8E-1ACED3959C8C}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>SelectFood</t>
   </si>
   <si>
-    <t>Summery</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>NotEnoughFoodException</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -792,12 +792,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -908,12 +908,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" ref="B15:H15" si="0">AVERAGE(B2:B14)</f>
@@ -921,7 +921,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
@@ -945,7 +945,7 @@
       </c>
       <c r="I15" s="3">
         <f>AVERAGE(B15:H15)</f>
-        <v>0.23076923076923078</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
   </sheetData>
